--- a/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="912">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3895,10 +3895,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Pause</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4047,6 +4043,22 @@
   </si>
   <si>
     <t>"C:\Nform\user\export\"+"\*"+"good.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to create file at specified location.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4121,6 +4133,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4321,10 +4334,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4347,7 +4360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4633,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4791,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4815,7 +4828,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4976,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5086,7 +5099,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>800</v>
@@ -5117,7 +5130,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>832</v>
+        <v>908</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>800</v>
@@ -5284,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -5325,10 +5338,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>868</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -5360,13 +5373,13 @@
         <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -5414,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5455,7 +5468,7 @@
         <v>864</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F29" s="3">
         <v>5</v>
@@ -5486,13 +5499,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5540,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -5581,7 +5594,7 @@
         <v>864</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
@@ -5612,13 +5625,13 @@
         <v>7</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -5666,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5707,7 +5720,7 @@
         <v>864</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F39" s="3">
         <v>5</v>
@@ -5738,13 +5751,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -5792,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5833,7 +5846,7 @@
         <v>864</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -5864,13 +5877,13 @@
         <v>7</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -5918,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -5959,7 +5972,7 @@
         <v>864</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
@@ -5990,13 +6003,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -6044,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -6085,7 +6098,7 @@
         <v>864</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F54" s="3">
         <v>5</v>
@@ -6116,13 +6129,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -6170,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -6211,7 +6224,7 @@
         <v>864</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F59" s="3">
         <v>5</v>
@@ -6242,13 +6255,13 @@
         <v>7</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -6296,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6337,7 +6350,7 @@
         <v>864</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F64" s="3">
         <v>5</v>
@@ -6368,13 +6381,13 @@
         <v>7</v>
       </c>
       <c r="H65" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -6410,7 +6423,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>800</v>
@@ -6436,7 +6449,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>800</v>
@@ -6470,10 +6483,10 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>1</v>
@@ -6496,7 +6509,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>857</v>
@@ -6522,10 +6535,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6548,10 +6561,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6574,7 +6587,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>858</v>
@@ -6600,10 +6613,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6627,10 +6640,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6654,10 +6667,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6680,10 +6693,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6706,10 +6719,10 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6732,10 +6745,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6758,10 +6771,10 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J80" s="3" t="b">
         <v>1</v>
@@ -6784,10 +6797,10 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J81" s="3" t="b">
         <v>1</v>
@@ -6810,10 +6823,10 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J82" s="3" t="b">
         <v>1</v>
@@ -6836,7 +6849,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>862</v>
@@ -6862,10 +6875,10 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J84" s="3" t="b">
         <v>1</v>
@@ -6880,7 +6893,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -6988,7 +7001,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>800</v>
@@ -7014,7 +7027,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>832</v>
+        <v>910</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>800</v>
@@ -7106,10 +7119,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J94" s="3" t="b">
         <v>0</v>
@@ -7136,10 +7149,10 @@
         <v>7</v>
       </c>
       <c r="H95" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J95" s="3" t="b">
         <v>0</v>
@@ -7163,7 +7176,7 @@
         <v>738</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7181,16 +7194,16 @@
         <v>830</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -7207,10 +7220,10 @@
         <v>830</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>2</v>
@@ -7255,7 +7268,7 @@
         <v>864</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F100" s="3">
         <v>5</v>
@@ -7286,13 +7299,13 @@
         <v>7</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -7328,7 +7341,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>800</v>
@@ -7354,7 +7367,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>800</v>
@@ -7388,10 +7401,10 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J105" s="3" t="b">
         <v>1</v>
@@ -7414,7 +7427,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>857</v>
@@ -7440,10 +7453,10 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7466,10 +7479,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7492,7 +7505,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>858</v>
@@ -7518,10 +7531,10 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J110" s="3" t="b">
         <v>1</v>
@@ -7544,10 +7557,10 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J111" s="3" t="b">
         <v>1</v>
@@ -7570,10 +7583,10 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J112" s="3" t="b">
         <v>1</v>
@@ -7596,10 +7609,10 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J113" s="3" t="b">
         <v>1</v>
@@ -7622,10 +7635,10 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J114" s="3" t="b">
         <v>1</v>
@@ -7648,10 +7661,10 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J115" s="3" t="b">
         <v>1</v>
@@ -7674,10 +7687,10 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>1</v>
@@ -7700,10 +7713,10 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J117" s="3" t="b">
         <v>1</v>
@@ -7726,10 +7739,10 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J118" s="3" t="b">
         <v>1</v>
@@ -7752,7 +7765,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>862</v>
@@ -7778,10 +7791,10 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J120" s="3" t="b">
         <v>0</v>
@@ -7972,7 +7985,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F127 F2:F96">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D122 D13:D84 D3:D4 D10:D11 D87:D120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D122 D87:D120 D3:D4 D10:D11 D13:D84">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99:E127 E2:E96">
@@ -7980,7 +7993,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="911">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3935,10 +3935,6 @@
     <t>Incident</t>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4026,10 +4022,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>FileName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"7003030Myalarmhistory"</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4046,19 +4038,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>FileNameText</t>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&amp;.csv"</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unable to create file at specified location.</t>
+    <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4255,7 +4250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4269,8 +4264,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4332,11 +4330,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4644,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4741,25 +4744,19 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
+      <c r="D3" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>907</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>908</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4775,14 +4772,14 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+      <c r="E4" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4793,7 +4790,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4803,21 +4800,31 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
@@ -4827,11 +4834,15 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4846,13 +4857,13 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4866,7 +4877,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4874,29 +4885,19 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15">
@@ -4908,18 +4909,18 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+        <v>845</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15">
@@ -4932,55 +4933,53 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>864</v>
+      <c r="D10" s="11" t="s">
+        <v>831</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>620</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="I10" s="21">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+        <v>847</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14"/>
+      <c r="D11" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>806</v>
       </c>
@@ -4988,19 +4987,27 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14"/>
+      <c r="H12" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="I12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15">
@@ -5012,19 +5019,17 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -5032,7 +5037,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="22" t="s">
         <v>808</v>
       </c>
@@ -5040,18 +5045,12 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D14" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5076,7 +5075,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -5099,22 +5098,20 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>909</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J16" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -5130,22 +5127,20 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J17" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -5161,25 +5156,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="J18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -5196,20 +5187,22 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="J19" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5236,11 +5229,17 @@
         <v>741</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J20" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -5262,7 +5261,7 @@
         <v>736</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>417</v>
+        <v>740</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -5291,14 +5290,12 @@
         <v>736</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>398</v>
+        <v>741</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>907</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5318,7 +5315,7 @@
         <v>736</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>2</v>
@@ -5341,13 +5338,17 @@
         <v>830</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5364,23 +5365,17 @@
         <v>830</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>911</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -5391,18 +5386,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>830</v>
+        <v>909</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5418,19 +5411,23 @@
         <v>830</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -5444,7 +5441,7 @@
         <v>830</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>17</v>
@@ -5465,16 +5462,20 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5490,23 +5491,17 @@
         <v>830</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5517,18 +5512,16 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5544,19 +5537,23 @@
         <v>830</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -5570,7 +5567,7 @@
         <v>830</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>17</v>
@@ -5591,16 +5588,20 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -5616,23 +5617,17 @@
         <v>830</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -5643,18 +5638,16 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -5670,19 +5663,23 @@
         <v>830</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -5696,7 +5693,7 @@
         <v>830</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -5717,16 +5714,20 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F39" s="3">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5742,23 +5743,17 @@
         <v>830</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5769,18 +5764,16 @@
         <v>40</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5796,19 +5789,23 @@
         <v>830</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5822,7 +5819,7 @@
         <v>830</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -5843,16 +5840,20 @@
         <v>43</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5868,23 +5869,17 @@
         <v>830</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -5895,18 +5890,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -5922,19 +5915,23 @@
         <v>830</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -5948,7 +5945,7 @@
         <v>830</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>17</v>
@@ -5969,16 +5966,20 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>894</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -5994,23 +5995,17 @@
         <v>830</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -6021,18 +6016,16 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6048,19 +6041,23 @@
         <v>830</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>888</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6074,7 +6071,7 @@
         <v>830</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>17</v>
@@ -6095,16 +6092,20 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -6120,23 +6121,17 @@
         <v>830</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>898</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -6147,18 +6142,16 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -6174,19 +6167,23 @@
         <v>830</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H57" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -6200,7 +6197,7 @@
         <v>830</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>17</v>
@@ -6221,16 +6218,20 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -6246,23 +6247,17 @@
         <v>830</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>898</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6273,18 +6268,16 @@
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -6300,19 +6293,23 @@
         <v>830</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+        <v>880</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -6326,7 +6323,7 @@
         <v>830</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>17</v>
@@ -6347,16 +6344,20 @@
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F64" s="3">
-        <v>5</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>889</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -6372,23 +6373,17 @@
         <v>830</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -6399,18 +6394,16 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -6423,21 +6416,25 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>851</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J67" s="3" t="b">
-        <v>0</v>
+        <v>882</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6449,22 +6446,20 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J68" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -6475,7 +6470,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>800</v>
@@ -6483,13 +6478,13 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="J69" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -6501,7 +6496,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>800</v>
@@ -6509,13 +6504,13 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>890</v>
+        <v>853</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="J70" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -6535,10 +6530,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6561,10 +6556,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6587,10 +6582,10 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6613,10 +6608,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6640,10 +6635,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6667,10 +6662,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6693,10 +6688,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6719,10 +6714,10 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6745,10 +6740,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6771,10 +6766,10 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J80" s="3" t="b">
         <v>1</v>
@@ -6797,10 +6792,10 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J81" s="3" t="b">
         <v>1</v>
@@ -6823,10 +6818,10 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J82" s="3" t="b">
         <v>1</v>
@@ -6849,10 +6844,10 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="J83" s="3" t="b">
         <v>1</v>
@@ -6875,10 +6870,10 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="J84" s="3" t="b">
         <v>1</v>
@@ -6888,58 +6883,68 @@
       <c r="M84" s="3"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="3:14" ht="15">
+    <row r="85" spans="3:14">
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="E85" s="3"/>
+      <c r="D85" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="J85" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="86" spans="3:14" s="16" customFormat="1">
       <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E86" s="3"/>
+      <c r="D86" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="J86" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="3:14" s="16" customFormat="1">
+    <row r="87" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C87" s="3">
         <v>86</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D87" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -6948,22 +6953,16 @@
       <c r="M87" s="3"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="3:14" s="16" customFormat="1">
+    <row r="88" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D88" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -6983,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2</v>
@@ -7001,22 +7000,20 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>909</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J90" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -7027,22 +7024,20 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J91" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -7053,25 +7048,21 @@
         <v>91</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="J92" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -7083,20 +7074,22 @@
         <v>92</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="J93" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -7113,19 +7106,19 @@
         <v>736</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="J94" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -7143,20 +7136,14 @@
         <v>736</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>416</v>
+        <v>740</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="J95" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -7173,14 +7160,20 @@
         <v>736</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>738</v>
+        <v>417</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="J96" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -7194,19 +7187,23 @@
         <v>830</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>902</v>
+        <v>736</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>903</v>
+        <v>416</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+        <v>883</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="J97" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -7220,13 +7217,13 @@
         <v>830</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>902</v>
+        <v>736</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>905</v>
+        <v>738</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>2</v>
+        <v>900</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -7244,15 +7241,17 @@
         <v>830</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>736</v>
+        <v>901</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>17</v>
+        <v>906</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>902</v>
+      </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -7265,16 +7264,18 @@
         <v>99</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F100" s="3">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="18"/>
+        <v>901</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -7290,23 +7291,17 @@
         <v>830</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>762</v>
+        <v>17</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -7317,18 +7312,16 @@
         <v>101</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -7341,21 +7334,25 @@
         <v>102</v>
       </c>
       <c r="D103" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3" t="s">
-        <v>851</v>
-      </c>
       <c r="I103" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J103" s="3" t="b">
-        <v>0</v>
+        <v>882</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -7367,22 +7364,20 @@
         <v>103</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J104" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -7393,7 +7388,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>800</v>
@@ -7401,13 +7396,13 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>906</v>
+        <v>851</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="J105" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -7419,7 +7414,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>800</v>
@@ -7427,13 +7422,13 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>906</v>
+        <v>853</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="J106" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -7453,10 +7448,10 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7479,10 +7474,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7505,10 +7500,10 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="J109" s="3" t="b">
         <v>1</v>
@@ -7531,10 +7526,10 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J110" s="3" t="b">
         <v>1</v>
@@ -7557,10 +7552,10 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="J111" s="3" t="b">
         <v>1</v>
@@ -7583,10 +7578,10 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J112" s="3" t="b">
         <v>1</v>
@@ -7609,10 +7604,10 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J113" s="3" t="b">
         <v>1</v>
@@ -7635,10 +7630,10 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J114" s="3" t="b">
         <v>1</v>
@@ -7661,10 +7656,10 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J115" s="3" t="b">
         <v>1</v>
@@ -7687,10 +7682,10 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>1</v>
@@ -7713,10 +7708,10 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J117" s="3" t="b">
         <v>1</v>
@@ -7739,10 +7734,10 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J118" s="3" t="b">
         <v>1</v>
@@ -7765,10 +7760,10 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="J119" s="3" t="b">
         <v>1</v>
@@ -7791,32 +7786,40 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="J120" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="14"/>
     </row>
-    <row r="121" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="121" spans="3:14" s="16" customFormat="1">
       <c r="C121" s="3">
         <v>120</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="E121" s="3"/>
+      <c r="D121" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="J121" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -7827,43 +7830,39 @@
         <v>121</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="J122" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="14"/>
     </row>
-    <row r="123" spans="3:14">
+    <row r="123" spans="3:14" ht="15">
       <c r="C123" s="3">
         <v>122</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
+      <c r="D123" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7875,28 +7874,26 @@
         <v>123</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>856</v>
+        <v>19</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>621</v>
+        <v>22</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I124" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="3:14" ht="14.25">
+    <row r="125" spans="3:14">
       <c r="C125" s="3">
         <v>124</v>
       </c>
@@ -7904,16 +7901,16 @@
         <v>855</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>856</v>
+        <v>19</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="3"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7927,16 +7924,18 @@
       <c r="D126" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>628</v>
+      <c r="E126" s="21" t="s">
+        <v>856</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>244</v>
+        <v>621</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H126" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -7944,7 +7943,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="14"/>
     </row>
-    <row r="127" spans="3:14">
+    <row r="127" spans="3:14" ht="14.25">
       <c r="C127" s="3">
         <v>126</v>
       </c>
@@ -7955,22 +7954,98 @@
         <v>856</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="14"/>
     </row>
+    <row r="128" spans="3:14">
+      <c r="C128" s="3">
+        <v>127</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="21"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="14"/>
+    </row>
+    <row r="129" spans="3:14">
+      <c r="C129" s="3">
+        <v>128</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130" spans="3:14">
+      <c r="C130" s="3">
+        <v>129</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14">
+      <c r="C131" s="3">
+        <v>130</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N127">
+  <conditionalFormatting sqref="N2:N129">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7979,16 +8054,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G125:G127 G2:G123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12 G127:G129 G2:G125">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F127 F2:F96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F101:F129 F2 F5:F98">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D122 D87:D120 D3:D4 D10:D11 D13:D84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D124 D89:D122 D12:D13 D15:D86 D3:D6 D130:D131">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99:E127 E2:E96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E101:E131 E2:E98">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.30_AlarmHistorywithUserDefinedFileNameandLocation.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="914">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3826,15 +3826,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MultiSearch</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
     <t xml:space="preserve">;Export history </t>
   </si>
   <si>
@@ -3887,10 +3878,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3958,102 +3945,126 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>;Precondition:1) Device should present in viewer. 2) Nform should have received alarms from the above some devices.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify valid file name.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&amp;.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing*.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&lt;.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&gt;.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing|.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing?.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing\.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing/.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directory not found, check the path.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Assign the file name as to any which contains special characters, punctuation marks, double quotes, non-printable characters. Export history.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>; User can traverse through the path using 'Change' option.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormSaveAs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7003030Myalarmhistory"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030Myalarmhistory.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\"+"\*"+"good.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileNameText</t>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&amp;.csv"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>;The goal of this test is to verify the export alarm history for 'Device Alarms', 'Application Alarms' and 'All Alarms'. This time the filename and path of the file will be user defined. User has to verify does file get created at the user specified location with the given name.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>;Precondition:1) Device should present in viewer. 2) Nform should have received alarms from the above some devices.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify valid file name.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&amp;.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing*.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&lt;.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&gt;.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing|.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing?.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing\.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing/.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Directory not found, check the path.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>; Assign the file name as to any which contains special characters, punctuation marks, double quotes, non-printable characters. Export history.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>; User can traverse through the path using 'Change' option.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormSaveAs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7003030Myalarmhistory"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003030Myalarmhistory.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\"+"\*"+"good.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileNameText</t>
-  </si>
-  <si>
-    <t>DeleteLocalFile</t>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\export\7003030_Export_Alarm testing&amp;.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4061,7 +4072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4169,6 +4180,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4327,13 +4346,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4342,7 +4361,35 @@
     <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4649,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4739,19 +4786,19 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>907</v>
+      <c r="E3" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4772,14 +4819,14 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>907</v>
+      <c r="E4" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4863,7 +4910,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4886,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4943,19 +4990,25 @@
         <v>626</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="N10" s="26"/>
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="15">
@@ -4965,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -4988,7 +5041,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>802</v>
@@ -4996,13 +5049,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>865</v>
+        <v>913</v>
       </c>
       <c r="I12" s="21">
         <v>5</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -5046,7 +5099,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5156,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>800</v>
@@ -5164,10 +5217,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J18" s="3" t="b">
         <v>0</v>
@@ -5187,7 +5240,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>800</v>
@@ -5195,10 +5248,10 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J19" s="3" t="b">
         <v>0</v>
@@ -5232,10 +5285,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J20" s="3" t="b">
         <v>1</v>
@@ -5347,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5386,10 +5439,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F26" s="3">
         <v>5</v>
@@ -5420,13 +5473,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -5474,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -5512,10 +5565,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F31" s="3">
         <v>5</v>
@@ -5546,13 +5599,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5600,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -5638,10 +5691,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F36" s="3">
         <v>5</v>
@@ -5672,13 +5725,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -5726,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -5764,10 +5817,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
@@ -5798,13 +5851,13 @@
         <v>7</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -5852,7 +5905,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5890,10 +5943,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F46" s="3">
         <v>5</v>
@@ -5924,13 +5977,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -5978,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -6016,10 +6069,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F51" s="3">
         <v>5</v>
@@ -6050,13 +6103,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -6104,7 +6157,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -6142,10 +6195,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F56" s="3">
         <v>5</v>
@@ -6176,13 +6229,13 @@
         <v>7</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -6230,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -6268,10 +6321,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F61" s="3">
         <v>5</v>
@@ -6302,13 +6355,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -6356,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -6394,10 +6447,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F66" s="3">
         <v>5</v>
@@ -6428,13 +6481,13 @@
         <v>7</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6470,7 +6523,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>800</v>
@@ -6478,10 +6531,10 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>0</v>
@@ -6496,7 +6549,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>800</v>
@@ -6504,10 +6557,10 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J70" s="3" t="b">
         <v>0</v>
@@ -6530,10 +6583,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6556,10 +6609,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6582,10 +6635,10 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6608,10 +6661,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6635,10 +6688,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6662,10 +6715,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6688,10 +6741,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6714,10 +6767,10 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6740,10 +6793,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6766,10 +6819,10 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J80" s="3" t="b">
         <v>1</v>
@@ -6792,10 +6845,10 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J81" s="3" t="b">
         <v>1</v>
@@ -6818,10 +6871,10 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J82" s="3" t="b">
         <v>1</v>
@@ -6844,10 +6897,10 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="J83" s="3" t="b">
         <v>1</v>
@@ -6870,10 +6923,10 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="J84" s="3" t="b">
         <v>1</v>
@@ -6896,10 +6949,10 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J85" s="3" t="b">
         <v>1</v>
@@ -6922,10 +6975,10 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J86" s="3" t="b">
         <v>1</v>
@@ -6940,7 +6993,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -6958,7 +7011,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -7048,7 +7101,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>800</v>
@@ -7056,10 +7109,10 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J92" s="3" t="b">
         <v>0</v>
@@ -7074,7 +7127,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>800</v>
@@ -7082,10 +7135,10 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J93" s="3" t="b">
         <v>0</v>
@@ -7112,10 +7165,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J94" s="3" t="b">
         <v>1</v>
@@ -7166,10 +7219,10 @@
         <v>7</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="J96" s="3" t="b">
         <v>0</v>
@@ -7196,10 +7249,10 @@
         <v>7</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="J97" s="3" t="b">
         <v>0</v>
@@ -7223,7 +7276,7 @@
         <v>738</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -7241,16 +7294,16 @@
         <v>830</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -7267,10 +7320,10 @@
         <v>830</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>2</v>
@@ -7312,10 +7365,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F102" s="3">
         <v>5</v>
@@ -7346,13 +7399,13 @@
         <v>7</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -7388,7 +7441,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>800</v>
@@ -7396,10 +7449,10 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J105" s="3" t="b">
         <v>0</v>
@@ -7414,7 +7467,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>800</v>
@@ -7422,10 +7475,10 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J106" s="3" t="b">
         <v>0</v>
@@ -7448,10 +7501,10 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7474,10 +7527,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7500,10 +7553,10 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J109" s="3" t="b">
         <v>1</v>
@@ -7526,10 +7579,10 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="J110" s="3" t="b">
         <v>1</v>
@@ -7552,10 +7605,10 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J111" s="3" t="b">
         <v>1</v>
@@ -7578,10 +7631,10 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J112" s="3" t="b">
         <v>1</v>
@@ -7604,10 +7657,10 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="J113" s="3" t="b">
         <v>1</v>
@@ -7630,10 +7683,10 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="J114" s="3" t="b">
         <v>1</v>
@@ -7656,10 +7709,10 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="J115" s="3" t="b">
         <v>1</v>
@@ -7682,10 +7735,10 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>1</v>
@@ -7708,10 +7761,10 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J117" s="3" t="b">
         <v>1</v>
@@ -7734,10 +7787,10 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J118" s="3" t="b">
         <v>1</v>
@@ -7760,10 +7813,10 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="J119" s="3" t="b">
         <v>1</v>
@@ -7786,10 +7839,10 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="J120" s="3" t="b">
         <v>1</v>
@@ -7812,10 +7865,10 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J121" s="3" t="b">
         <v>1</v>
@@ -7838,10 +7891,10 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J122" s="3" t="b">
         <v>0</v>
@@ -7856,7 +7909,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -7898,7 +7951,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>19</v>
@@ -7922,10 +7975,10 @@
         <v>125</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>621</v>
@@ -7948,10 +8001,10 @@
         <v>126</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>213</v>
@@ -7972,7 +8025,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>628</v>
@@ -7996,10 +8049,10 @@
         <v>128</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>100</v>
@@ -8019,37 +8072,45 @@
       <c r="C130" s="3">
         <v>129</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="E130" s="26" t="s">
-        <v>907</v>
+      <c r="E130" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="131" spans="3:14">
       <c r="C131" s="3">
         <v>130</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="E131" s="26" t="s">
-        <v>907</v>
+      <c r="E131" s="25" t="s">
+        <v>902</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="N2:N129">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
